--- a/Assignment_1/ilanlar1.xlsx
+++ b/Assignment_1/ilanlar1.xlsx
@@ -436,19 +436,19 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Başlık</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Konum</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Fiyat</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Başlık</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Konum</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Oda Sayısı</t>
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>İlan Tarihi</t>
+          <t>Tarihi</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>İlan Linki</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -486,29 +486,30 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Isınma Tipi</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Yakıt Tipi</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Isınma Tipi</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21.000</t>
+          <t>MENDERES MH.DE 2+1 ÇİFT CEPHE ARAKAT 85 M2 ARAKAT KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GÜNEŞ'TEN ŞİRİNYER İZBAN 5DK 2+1 95M EŞYALI K.MUTFAK ARAKAT BALKON</t>
+          <t>İzmir / Buca / Menderes Mah.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>İzmir / Buca / İnkılap Mah.</t>
+          <t>14.000
+TL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,59 +519,60 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95 m²</t>
+          <t>84 m²</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>20 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/130324-803</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/147777-163</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Isıtma Yok</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>Menderes Mh. Öğrenciye Kiralık 4+1 130 M2 Teraslı Doğalgazlı Daire</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Menderes Mh. Öğrenciye Kiralık 4+1 130 M2 Teraslı Doğalgazlı Daire</t>
+          <t>İzmir / Buca / Menderes Mah.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Menderes Mah.</t>
+          <t>20.000
+TL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -610,29 +612,30 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21.500</t>
+          <t>GENİŞ, 2 ODA 1 SALON BAHÇELİ YÜKSEK ZEMİN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BUCA KURUÇEŞMEDE 2+1 YÜKSEK ZEMİM FULL EŞYALI KİRALIK DAİRE</t>
+          <t>İzmir / Buca / Efeler Mah.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>15.000
+TL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -642,12 +645,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>109 m²</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10 Yaşında</t>
+          <t>29 Yaşında</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -657,12 +660,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/106987-741</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/13470-2483</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -672,59 +675,60 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Isıtma Yok</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17.000</t>
+          <t>Buca Göksu Mah İnkılap İzban Dibi 3+1 120 M2 D.gazlı</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ÖZPA - BUCA ALTINKAPI MAHALLESİ TENİS KULÜBÜ YANI 45 M2 DOĞALGAZLI 1. KAT KİRALIK SIFIR 1+1</t>
+          <t>İzmir / Buca / Göksu Mah.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Gaziler Mah.</t>
+          <t>14.000
+TL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>21 Yaşında</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>Giriş Katı</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-gaziler-kiralik/daire/25220-2453</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/83461-581</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -734,29 +738,26 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
           <t>Kombi</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>GÜNEŞ'TEN ŞİRİNYER İZBAN 9DK 1+1 50M ASANSÖR KLİMA GÜNEY CEPHE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Buca Belediye Kafeler Bölgesinde Sıfır Eşyalı Merkezi Isıtmalı 1+1 Kiralık Daire ESNAFOĞLU'ndan...</t>
+          <t>İzmir / Buca / İnkılap Mah.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Vali Rahmi Bey Mah.</t>
+          <t>16.500
+TL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -766,69 +767,70 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>60 m²</t>
+          <t>49 m²</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>2 Yaşında</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-vali-rahmi-bey-kiralik/daire/67273-3992</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/130324-802</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Merkezi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>16.000</t>
+          <t>SİTE İÇİ KİRALIK 3+1 145m2 ARAKAT DAİRE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GOLDİA YAPI'DAN KAMPÜS YAKINI KİRALIK 1+1 DAİRE !!!</t>
+          <t>İzmir / Buca / Mustafa Kemal Mah.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>34.000
+TL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>145 m²</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -838,111 +840,113 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>12. Kat</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/142618-218</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-mustafa-kemal-kiralik/daire/145608-91</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>Merkezi (Pay Ölçer)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>16.000</t>
+          <t>Deniz emlak dan Buca'da Yenigün mahallesinde kiralık daire</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GOLDİA YAPI'DAN KAMPÜS YAKINI EŞYALI KİRALIK 1+1</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>15.000
+TL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/142618-215</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/120009-3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16.500</t>
+          <t>BUCADA EŞYALI, ASANSÖRLÜ, DOĞALGAZLI,KLİMALI, DOKUZ EYLÜL ÜNİ YANI, 1+1 KİRALIK</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GÜNEŞ'TEN ŞİRİNYER İZBAN 9DK 1+1 50M ASANSÖR KLİMA GÜNEY CEPHE</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>İzmir / Buca / İnkılap Mah.</t>
+          <t>25.000
+TL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -952,89 +956,90 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>49 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>8. Kat</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>17-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/130324-802</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/77173-1070</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29.000</t>
+          <t>Kiralık Buca da Yiğitler Mah.3+1 110 m2 Doğalgazlı açık otoparkı olan merkez de bir daire</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kuruluş emlaktan site içi kiralık 2+1 130m2 daire</t>
+          <t>İzmir / Buca / Yiğitler Mah.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Mustafa Kemal Mah.</t>
+          <t>20.000
+TL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>Yarı Bodrum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-mustafa-kemal-kiralik/daire/145608-118</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/122602-100</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1044,29 +1049,30 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>FOR SALE &amp; FOR RENTTEN 3+1 VALİ RAHMİ BEY MAH 150 M2 ARA KAT DAİRE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kiralık Buca da Yiğitler Mah.3+1 110 m2 Doğalgazlı açık otoparkı olan merkez de bir daire</t>
+          <t>İzmir / Buca / Vali Rahmi Bey Mah.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yiğitler Mah.</t>
+          <t>25.000
+TL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1076,27 +1082,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>155 m²</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Yarı Bodrum</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/122602-100</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-vali-rahmi-bey-kiralik/daire/32982-4460</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1106,91 +1112,93 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>Doğalgaz Sobası</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>27.500</t>
+          <t>Buca Yedigöller 2+1 85 M2 D.gazlı Arakat Kiralık Daire</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EŞYALI, DOĞALGAZLI- KLİMALI-3 ODA 1 SALON 130 M2,LÜX DAİRE</t>
+          <t>İzmir / Buca / Çağdaş Mah.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Efeler Mah.</t>
+          <t>17.000
+TL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>135 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>23 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/13470-2471</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-cagdas-kiralik/daire/83461-473</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>34.000</t>
+          <t>FOR SALE &amp; FOR RENTTEN 3+1 İNKİLAPTA 150M2  ŞİRİNYER METRO YAKINI SON KAT DAİRE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SİTE İÇİ KİRALIK 3+1 145m2 ARAKAT DAİRE</t>
+          <t>İzmir / Buca / İnkılap Mah.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Mustafa Kemal Mah.</t>
+          <t>21.000
+TL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1200,27 +1208,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>145 m²</t>
+          <t>160 m²</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12. Kat</t>
+          <t>En Üst Kat</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-mustafa-kemal-kiralik/daire/145608-91</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/32982-4450</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1230,91 +1238,89 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25.000</t>
+          <t>MARKA'DAN H.AĞA BAHÇESİ YAKINI 1+0 EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FOR SALE &amp; FOR RENTTEN 3+1 VALİ RAHMİ BEY MAH 150 M2 ARA KAT DAİRE</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Vali Rahmi Bey Mah.</t>
+          <t>11.000
+TL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>Stüdyo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>155 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>2 Yaşında</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>17-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-vali-rahmi-bey-kiralik/daire/32982-4460</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/71024-1052</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Doğalgaz Sobası</t>
-        </is>
-      </c>
+          <t>Isıtma Yok</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20.500</t>
+          <t>--DOĞALGAZLI-ARAKAT-Buca-doğum hastanesi YAKINI - 3+1-125M2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATA EMLKTAN LÜKS 3+1 İZBAN YAKINI DAİRE.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>19.000
+TL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1324,74 +1330,71 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>140 m²</t>
+          <t>125 m²</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8 Yaşında</t>
+          <t>13 Yaşında</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/6425-4609</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
-        </is>
-      </c>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/13470-169</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
+          <t>Isıtma Yok</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16.000</t>
+          <t>Buca Çevik-1 Pazaryeri Çift Cepheli 2+1 Ayrı Mutfaklı 115m2 Ön ve Arka Balkonlu ESNAFOĞLU'ndan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AKTİFLER'den Buca Adatepe'de 1+1 Eşyalı Kiralık Yeni Daire</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>18.000
+TL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1401,12 +1404,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/21865-5164</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/67273-3993</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1416,121 +1419,119 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21.000</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 EŞYALI ARAKAT KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FOR SALE &amp; FOR RENTTEN 3+1 İNKİLAPTA 150M2  ŞİRİNYER METRO YAKINI SON KAT DAİRE</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>İzmir / Buca / İnkılap Mah.</t>
+          <t>12.500
+TL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>21 Yaşında</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/32982-4450</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1051</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Kombi</t>
-        </is>
-      </c>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18.000</t>
+          <t>GOLDİA YAPI'DAN KAMPÜS YAKINI KİRALIK 1+1 DAİRE !!!</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EŞYALI-DOĞALGAZLI 2 ODA 1 SALON-ARAKAT DAİRE</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kozağaç Mah.</t>
+          <t>16.000
+TL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>3 Yaşında</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/13470-2474</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/142618-218</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1540,29 +1541,30 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13.000</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 KLİMALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MARKA'DAN 1+1 EŞYALI KLİMALI KİRALIK DAİRE</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>13.000
+TL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1572,27 +1574,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Giriş Katı</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/71024-1034</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1049</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1600,105 +1602,107 @@
           <t>Eşyalı</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Klima</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16.500</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI KLİMALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ÇAMLIKULE MH. MERKEZİ KONUMDA // 2+1 // D.Gazlı ARAKAT KİRALIK</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıkule Mah.</t>
+          <t>15.000
+TL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>16 Yaşında</t>
+          <t>2 Yaşında</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>18-10-2024</t>
+          <t>19-10-2024</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/104457-10</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1048</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Kombi</t>
-        </is>
-      </c>
+          <t>Eşyalı</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30.000</t>
+          <t>ATATÜRK MAH'DE SİTE İÇİ ARA KAT D. GAZLI FULL EŞYALI 1+1 DAİRE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Buca Mustafa Kemal Mahallesin' de Kiralık 3+1 Daire</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Mustafa Kemal Mah.</t>
+          <t>17.000
+TL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>150 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6. Kat</t>
+          <t>5. Kat</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1708,39 +1712,36 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-mustafa-kemal-kiralik/daire/51456-7235</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142478-123</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Kombi</t>
-        </is>
-      </c>
+          <t>Merkezi (Pay Ölçer)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>BUCA ATATÜRK MAHALLESİNDE 3+1 FULL TADİLATLI MERKEZİ KONUM ULAŞIMI 4 BALKONLU KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BUCA ATATÜRK MAHALLESİNDE 3+1 FULL TADİLATLI MERKEZİ KONUM ULAŞIMI 4 BALKONLU KİRALIK DAİRE</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>20.000
+TL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1780,29 +1781,30 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21.500</t>
+          <t>Şirinyer Güven Mh. 3+1 145 M2 Doğalgazlı Arakat Kiralık Daire</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Şirinyer Güven Mh. 3+1 145 M2 Doğalgazlı Arakat Kiralık Daire</t>
+          <t>İzmir / Buca / Güven Mah.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Güven Mah.</t>
+          <t>21.500
+TL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1842,29 +1844,30 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>22.000</t>
+          <t>ARGA'DAN BUCA ŞİRİNYER'DE 3+1 EŞYALI DOĞALGAZLI KİRALIK DAİRE.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ARGA'DAN BUCA ŞİRİNYER'DE 3+1 EŞYALI DOĞALGAZLI KİRALIK DAİRE.</t>
+          <t>İzmir / Buca / Yiğitler Mah.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yiğitler Mah.</t>
+          <t>22.000
+TL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1904,29 +1907,30 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>35.000</t>
+          <t>ÜNİVERSİTE KARŞISI ARAKAT DOĞALGAZLI SIFIR LÜX EŞYALI  KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ÜNİVERSİTE KARŞISI ARAKAT DOĞALGAZLI SIFIR LÜX EŞYALI  KİRALIK DAİRE</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>35.000
+TL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1966,12 +1970,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>Doğalgaz</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Kombi</t>
         </is>
       </c>
     </row>
